--- a/upgrade_device_list.xlsx
+++ b/upgrade_device_list.xlsx
@@ -216,8 +216,8 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -227,7 +227,8 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.2793522267206"/>
     <col collapsed="false" hidden="false" max="7" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="47.331983805668"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
